--- a/Exercise2/Default.xlsx
+++ b/Exercise2/Default.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+  <si>
+    <t>Cart_Price_innertext_out2</t>
+  </si>
   <si>
     <t>p_Quantity</t>
   </si>
@@ -162,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -183,16 +186,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -491,42 +511,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="9.41796875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.41796875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customFormat="1">
+    <row r="1" customFormat="1">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2558</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>4</v>
       </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>5</v>
       </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>6</v>
       </c>
+      <c r="B5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -541,12 +570,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
